--- a/dyes_DFT_PBE_eth_dataset.xlsx
+++ b/dyes_DFT_PBE_eth_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,15 +476,10 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>COSMO_Screening_Charge</t>
+          <t>Max_Absorption_nm</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Max_Absorption_nm</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Max_f_osc</t>
         </is>
@@ -518,12 +513,9 @@
         <v>651.33504</v>
       </c>
       <c r="I2" t="n">
-        <v>-0</v>
+        <v>583</v>
       </c>
       <c r="J2" t="n">
-        <v>583</v>
-      </c>
-      <c r="K2" t="n">
         <v>1.010128</v>
       </c>
     </row>
@@ -555,12 +547,9 @@
         <v>840.423948</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="J3" t="n">
-        <v>558</v>
-      </c>
-      <c r="K3" t="n">
         <v>1.084045</v>
       </c>
     </row>
@@ -592,12 +581,9 @@
         <v>770.669635</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="J4" t="n">
-        <v>510</v>
-      </c>
-      <c r="K4" t="n">
         <v>0.547976</v>
       </c>
     </row>
@@ -629,12 +615,9 @@
         <v>652.896473</v>
       </c>
       <c r="I5" t="n">
-        <v>-0</v>
+        <v>592</v>
       </c>
       <c r="J5" t="n">
-        <v>592</v>
-      </c>
-      <c r="K5" t="n">
         <v>0.9993840000000001</v>
       </c>
     </row>
@@ -666,12 +649,9 @@
         <v>641.354295</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>528</v>
       </c>
       <c r="J6" t="n">
-        <v>528</v>
-      </c>
-      <c r="K6" t="n">
         <v>0.889745</v>
       </c>
     </row>
@@ -703,12 +683,9 @@
         <v>582.522059</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>530</v>
       </c>
       <c r="J7" t="n">
-        <v>530</v>
-      </c>
-      <c r="K7" t="n">
         <v>0.7176399999999999</v>
       </c>
     </row>
@@ -740,12 +717,9 @@
         <v>664.73637</v>
       </c>
       <c r="I8" t="n">
-        <v>-0</v>
+        <v>561</v>
       </c>
       <c r="J8" t="n">
-        <v>561</v>
-      </c>
-      <c r="K8" t="n">
         <v>1.05693</v>
       </c>
     </row>
@@ -777,12 +751,9 @@
         <v>748.458472</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>637</v>
       </c>
       <c r="J9" t="n">
-        <v>637</v>
-      </c>
-      <c r="K9" t="n">
         <v>0.705128</v>
       </c>
     </row>
@@ -814,567 +785,949 @@
         <v>828.789887</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="J10" t="n">
-        <v>682</v>
-      </c>
-      <c r="K10" t="n">
         <v>1.470767</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>AKSq1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5.195</v>
+        <v>-4.933</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.63</v>
+        <v>-2.683</v>
       </c>
       <c r="D11" t="n">
-        <v>6.5592</v>
+        <v>12.6487</v>
       </c>
       <c r="E11" t="n">
-        <v>-1393.134805</v>
+        <v>-976.941902</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.184</v>
+        <v>-0.883</v>
       </c>
       <c r="G11" t="n">
-        <v>387.3409</v>
+        <v>316.688346</v>
       </c>
       <c r="H11" t="n">
-        <v>412.951353</v>
+        <v>337.226059</v>
       </c>
       <c r="I11" t="n">
-        <v>-0</v>
+        <v>395</v>
       </c>
       <c r="J11" t="n">
-        <v>408</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.17197</v>
+        <v>0.660223</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>AKSq2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-5.163</v>
+        <v>-3.784</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.589</v>
+        <v>-1.898</v>
       </c>
       <c r="D12" t="n">
-        <v>6.8226</v>
+        <v>98.8438</v>
       </c>
       <c r="E12" t="n">
-        <v>-1278.684862</v>
+        <v>-1302.137905</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.054</v>
+        <v>-2.963</v>
       </c>
       <c r="G12" t="n">
-        <v>354.439145</v>
+        <v>405.449327</v>
       </c>
       <c r="H12" t="n">
-        <v>380.068067</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>409</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.234811</v>
-      </c>
+        <v>445.844837</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>AKSq3</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.271</v>
+        <v>-3.838</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.633</v>
+        <v>-1.98</v>
       </c>
       <c r="D13" t="n">
-        <v>3.3748</v>
+        <v>98.87090000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>-1444.874262</v>
+        <v>-1490.594493</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.061</v>
+        <v>-3.135</v>
       </c>
       <c r="G13" t="n">
-        <v>346.581779</v>
+        <v>434.990964</v>
       </c>
       <c r="H13" t="n">
-        <v>402.922143</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>359</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.109098</v>
-      </c>
+        <v>484.48366</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DPAA</t>
+          <t>AKSq4</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.862</v>
+        <v>-4.544</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.735</v>
+        <v>-2.512</v>
       </c>
       <c r="D14" t="n">
-        <v>5.8789</v>
+        <v>19.4563</v>
       </c>
       <c r="E14" t="n">
-        <v>-3704.69389</v>
+        <v>-1185.751624</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6850000000000001</v>
+        <v>-1.305</v>
       </c>
       <c r="G14" t="n">
-        <v>389.939641</v>
+        <v>379.435251</v>
       </c>
       <c r="H14" t="n">
-        <v>426.054576</v>
+        <v>406.117241</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="J14" t="n">
-        <v>474</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.499187</v>
+        <v>0.417237</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DPACA</t>
+          <t>Beetroot</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.095</v>
+        <v>-5.186</v>
       </c>
       <c r="C15" t="n">
-        <v>-3.249</v>
+        <v>-3.695</v>
       </c>
       <c r="D15" t="n">
-        <v>7.7768</v>
+        <v>4.6029</v>
       </c>
       <c r="E15" t="n">
-        <v>-3796.874182</v>
+        <v>-2016.20086</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8159999999999999</v>
+        <v>-2.47</v>
       </c>
       <c r="G15" t="n">
-        <v>412.305213</v>
+        <v>484.780784</v>
       </c>
       <c r="H15" t="n">
-        <v>452.543801</v>
-      </c>
-      <c r="I15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>519</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.533851</v>
-      </c>
+        <v>533.433162</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Phenothiazine1</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4.935</v>
+        <v>-5.195</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.333</v>
+        <v>-2.63</v>
       </c>
       <c r="D16" t="n">
-        <v>9.0352</v>
+        <v>6.5592</v>
       </c>
       <c r="E16" t="n">
-        <v>-1351.57215</v>
+        <v>-1393.134805</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.765</v>
+        <v>-1.184</v>
       </c>
       <c r="G16" t="n">
-        <v>330.452395</v>
+        <v>387.3409</v>
       </c>
       <c r="H16" t="n">
-        <v>349.95115</v>
+        <v>412.951353</v>
       </c>
       <c r="I16" t="n">
-        <v>-0</v>
+        <v>408</v>
       </c>
       <c r="J16" t="n">
-        <v>343</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.288586</v>
+        <v>0.17197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Phenothiazine2</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4.818</v>
+        <v>-5.163</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.806</v>
+        <v>-2.589</v>
       </c>
       <c r="D17" t="n">
-        <v>7.2013</v>
+        <v>6.8226</v>
       </c>
       <c r="E17" t="n">
-        <v>-1259.394134</v>
+        <v>-1278.684862</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.631</v>
+        <v>-1.054</v>
       </c>
       <c r="G17" t="n">
-        <v>311.25871</v>
+        <v>354.439145</v>
       </c>
       <c r="H17" t="n">
-        <v>327.396927</v>
+        <v>380.068067</v>
       </c>
       <c r="I17" t="n">
-        <v>-0</v>
+        <v>409</v>
       </c>
       <c r="J17" t="n">
-        <v>308</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.353802</v>
+        <v>0.234811</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Phenothiazine3</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5.34</v>
+        <v>-5.271</v>
       </c>
       <c r="C18" t="n">
-        <v>-3.153</v>
+        <v>-2.633</v>
       </c>
       <c r="D18" t="n">
-        <v>9.789300000000001</v>
+        <v>3.3748</v>
       </c>
       <c r="E18" t="n">
-        <v>-953.539237</v>
+        <v>-1444.874262</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.765</v>
+        <v>-1.061</v>
       </c>
       <c r="G18" t="n">
-        <v>310.115745</v>
+        <v>346.581779</v>
       </c>
       <c r="H18" t="n">
-        <v>326.248824</v>
+        <v>402.922143</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="J18" t="n">
-        <v>332</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.479784</v>
+        <v>0.109098</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Phenothiazine4</t>
+          <t>DPAA</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4.991</v>
+        <v>-4.862</v>
       </c>
       <c r="C19" t="n">
-        <v>-3.206</v>
+        <v>-2.735</v>
       </c>
       <c r="D19" t="n">
-        <v>9.4053</v>
+        <v>5.8789</v>
       </c>
       <c r="E19" t="n">
-        <v>-1032.044192</v>
+        <v>-3704.69389</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.759</v>
+        <v>-0.6850000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>333.827291</v>
+        <v>389.939641</v>
       </c>
       <c r="H19" t="n">
-        <v>358.719796</v>
+        <v>426.054576</v>
       </c>
       <c r="I19" t="n">
-        <v>-0</v>
+        <v>474</v>
       </c>
       <c r="J19" t="n">
-        <v>524</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.534846</v>
+        <v>0.499187</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Quercitin</t>
+          <t>DPACA</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-5.323</v>
+        <v>-5.095</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.754</v>
+        <v>-3.249</v>
       </c>
       <c r="D20" t="n">
-        <v>6.6676</v>
+        <v>7.7768</v>
       </c>
       <c r="E20" t="n">
-        <v>-1638.590312</v>
+        <v>-3796.874182</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.058</v>
+        <v>-0.8159999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>381.893317</v>
+        <v>412.305213</v>
       </c>
       <c r="H20" t="n">
-        <v>426.986904</v>
+        <v>452.543801</v>
       </c>
       <c r="I20" t="n">
-        <v>-0</v>
+        <v>519</v>
       </c>
       <c r="J20" t="n">
-        <v>419</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.193758</v>
+        <v>0.533851</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Rutin</t>
+          <t>imidazole1-1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-5.159</v>
+        <v>-4.908</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.833</v>
+        <v>-3.24</v>
       </c>
       <c r="D21" t="n">
-        <v>6.3594</v>
+        <v>15.9162</v>
       </c>
       <c r="E21" t="n">
-        <v>-2710.037461</v>
+        <v>-1792.373694</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.971</v>
+        <v>-1.279</v>
       </c>
       <c r="G21" t="n">
-        <v>631.881213</v>
+        <v>550.9036610000001</v>
       </c>
       <c r="H21" t="n">
-        <v>731.916619</v>
+        <v>608.061144</v>
       </c>
       <c r="I21" t="n">
-        <v>-0</v>
+        <v>499</v>
       </c>
       <c r="J21" t="n">
-        <v>466</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.255696</v>
+        <v>0.49904</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>imidazole1-2</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-5.418</v>
+        <v>-4.643</v>
       </c>
       <c r="C22" t="n">
-        <v>-3.71</v>
+        <v>-3.331</v>
       </c>
       <c r="D22" t="n">
-        <v>14.832</v>
+        <v>14.9396</v>
       </c>
       <c r="E22" t="n">
-        <v>-1464.797419</v>
+        <v>-2022.424503</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.012</v>
+        <v>-1.356</v>
       </c>
       <c r="G22" t="n">
-        <v>373.33181</v>
+        <v>627.077769</v>
       </c>
       <c r="H22" t="n">
-        <v>386.599372</v>
+        <v>682.392874</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="J22" t="n">
-        <v>523</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.952597</v>
+        <v>0.47172</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>imidazole1-3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-5.396</v>
+        <v>-5.101</v>
       </c>
       <c r="C23" t="n">
-        <v>-3.71</v>
+        <v>-3.694</v>
       </c>
       <c r="D23" t="n">
-        <v>15.8432</v>
+        <v>16.2844</v>
       </c>
       <c r="E23" t="n">
-        <v>-1618.511711</v>
+        <v>-2535.560415</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.097</v>
+        <v>-1</v>
       </c>
       <c r="G23" t="n">
-        <v>417.523898</v>
+        <v>591.298232</v>
       </c>
       <c r="H23" t="n">
-        <v>431.785193</v>
+        <v>658.422544</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="J23" t="n">
-        <v>540</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.7944870000000001</v>
+        <v>0.808441</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>imidazole1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-5.448</v>
+        <v>-4.934</v>
       </c>
       <c r="C24" t="n">
-        <v>-3.863</v>
+        <v>-3.557</v>
       </c>
       <c r="D24" t="n">
-        <v>13.091</v>
+        <v>17.3138</v>
       </c>
       <c r="E24" t="n">
-        <v>-1633.444146</v>
+        <v>-1967.136305</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.952</v>
+        <v>-1.353</v>
       </c>
       <c r="G24" t="n">
-        <v>393.928755</v>
+        <v>617.099793</v>
       </c>
       <c r="H24" t="n">
-        <v>413.254515</v>
+        <v>671.250232</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="J24" t="n">
-        <v>560</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1.005572</v>
+        <v>0.577334</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>imidazole2</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-4.944</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-3.541</v>
+      </c>
+      <c r="D25" t="n">
+        <v>16.471</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-2312.401476</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-1.336</v>
+      </c>
+      <c r="G25" t="n">
+        <v>704.952075</v>
+      </c>
+      <c r="H25" t="n">
+        <v>785.040585</v>
+      </c>
+      <c r="I25" t="n">
+        <v>528</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.423081</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>imidazole3</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-4.977</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-3.619</v>
+      </c>
+      <c r="D26" t="n">
+        <v>15.3525</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-1965.967739</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-1.36</v>
+      </c>
+      <c r="G26" t="n">
+        <v>602.737814</v>
+      </c>
+      <c r="H26" t="n">
+        <v>657.103752</v>
+      </c>
+      <c r="I26" t="n">
+        <v>381</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.6651629999999999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>imidazole4</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-4.937</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-3.595</v>
+      </c>
+      <c r="D27" t="n">
+        <v>12.863</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-2311.233739</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-1.319</v>
+      </c>
+      <c r="G27" t="n">
+        <v>690.739525</v>
+      </c>
+      <c r="H27" t="n">
+        <v>770.634095</v>
+      </c>
+      <c r="I27" t="n">
+        <v>799</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.349878</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>imidazole5</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-5.186</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-3.431</v>
+      </c>
+      <c r="D28" t="n">
+        <v>16.1448</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-893.434984</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-1.046</v>
+      </c>
+      <c r="G28" t="n">
+        <v>300.657905</v>
+      </c>
+      <c r="H28" t="n">
+        <v>301.828548</v>
+      </c>
+      <c r="I28" t="n">
+        <v>505</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.715402</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Phenothiazine1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-4.935</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-3.333</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9.0352</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-1351.57215</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.765</v>
+      </c>
+      <c r="G29" t="n">
+        <v>330.452395</v>
+      </c>
+      <c r="H29" t="n">
+        <v>349.95115</v>
+      </c>
+      <c r="I29" t="n">
+        <v>343</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.288586</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Phenothiazine2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-4.818</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-2.806</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7.2013</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-1259.394134</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.631</v>
+      </c>
+      <c r="G30" t="n">
+        <v>311.25871</v>
+      </c>
+      <c r="H30" t="n">
+        <v>327.396927</v>
+      </c>
+      <c r="I30" t="n">
+        <v>308</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.353802</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Phenothiazine3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-5.34</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-3.153</v>
+      </c>
+      <c r="D31" t="n">
+        <v>9.789300000000001</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-953.539237</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.765</v>
+      </c>
+      <c r="G31" t="n">
+        <v>310.115745</v>
+      </c>
+      <c r="H31" t="n">
+        <v>326.248824</v>
+      </c>
+      <c r="I31" t="n">
+        <v>332</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.479784</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Phenothiazine4</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-4.991</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-3.206</v>
+      </c>
+      <c r="D32" t="n">
+        <v>9.4053</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-1032.044192</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.759</v>
+      </c>
+      <c r="G32" t="n">
+        <v>333.827291</v>
+      </c>
+      <c r="H32" t="n">
+        <v>358.719796</v>
+      </c>
+      <c r="I32" t="n">
+        <v>524</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.534846</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Quercitin</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-5.323</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-2.754</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6.6676</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-1638.590312</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-1.058</v>
+      </c>
+      <c r="G33" t="n">
+        <v>381.893317</v>
+      </c>
+      <c r="H33" t="n">
+        <v>426.986904</v>
+      </c>
+      <c r="I33" t="n">
+        <v>419</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.193758</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Rutin</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-5.159</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-2.833</v>
+      </c>
+      <c r="D34" t="n">
+        <v>6.3594</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-2710.037461</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-1.971</v>
+      </c>
+      <c r="G34" t="n">
+        <v>631.881213</v>
+      </c>
+      <c r="H34" t="n">
+        <v>731.916619</v>
+      </c>
+      <c r="I34" t="n">
+        <v>466</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.255696</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-5.418</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-3.71</v>
+      </c>
+      <c r="D35" t="n">
+        <v>14.832</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-1464.797419</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-1.012</v>
+      </c>
+      <c r="G35" t="n">
+        <v>373.33181</v>
+      </c>
+      <c r="H35" t="n">
+        <v>386.599372</v>
+      </c>
+      <c r="I35" t="n">
+        <v>523</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.952597</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-5.396</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-3.71</v>
+      </c>
+      <c r="D36" t="n">
+        <v>15.8432</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-1618.511711</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-1.097</v>
+      </c>
+      <c r="G36" t="n">
+        <v>417.523898</v>
+      </c>
+      <c r="H36" t="n">
+        <v>431.785193</v>
+      </c>
+      <c r="I36" t="n">
+        <v>540</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.7944870000000001</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-5.448</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-3.863</v>
+      </c>
+      <c r="D37" t="n">
+        <v>13.091</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-1633.444146</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.952</v>
+      </c>
+      <c r="G37" t="n">
+        <v>393.928755</v>
+      </c>
+      <c r="H37" t="n">
+        <v>413.254515</v>
+      </c>
+      <c r="I37" t="n">
+        <v>560</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.005572</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>T4</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B38" t="n">
         <v>-5.429</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C38" t="n">
         <v>-3.866</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D38" t="n">
         <v>13.7502</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E38" t="n">
         <v>-1787.160542</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F38" t="n">
         <v>-1.021</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G38" t="n">
         <v>441.173419</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H38" t="n">
         <v>457.649836</v>
       </c>
-      <c r="I25" t="n">
-        <v>-0</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="I38" t="n">
         <v>583</v>
       </c>
-      <c r="K25" t="n">
+      <c r="J38" t="n">
         <v>0.7942709999999999</v>
       </c>
     </row>

--- a/dyes_DFT_PBE_eth_dataset.xlsx
+++ b/dyes_DFT_PBE_eth_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1394,340 +1394,408 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Phenothiazine1</t>
+          <t>MS-C</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-4.935</v>
+        <v>-4.722</v>
       </c>
       <c r="C29" t="n">
-        <v>-3.333</v>
+        <v>-3.386</v>
       </c>
       <c r="D29" t="n">
-        <v>9.0352</v>
+        <v>12.4976</v>
       </c>
       <c r="E29" t="n">
-        <v>-1351.57215</v>
+        <v>-2524.737106</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.765</v>
+        <v>-1.229</v>
       </c>
       <c r="G29" t="n">
-        <v>330.452395</v>
+        <v>664.014608</v>
       </c>
       <c r="H29" t="n">
-        <v>349.95115</v>
+        <v>750.022794</v>
       </c>
       <c r="I29" t="n">
-        <v>343</v>
+        <v>524</v>
       </c>
       <c r="J29" t="n">
-        <v>0.288586</v>
+        <v>0.540054</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Phenothiazine2</t>
+          <t>MS-M</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-4.818</v>
+        <v>-4.847</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.806</v>
+        <v>-3.416</v>
       </c>
       <c r="D30" t="n">
-        <v>7.2013</v>
+        <v>13.6713</v>
       </c>
       <c r="E30" t="n">
-        <v>-1259.394134</v>
+        <v>-1891.093586</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.631</v>
+        <v>-0.948</v>
       </c>
       <c r="G30" t="n">
-        <v>311.25871</v>
+        <v>461.204862</v>
       </c>
       <c r="H30" t="n">
-        <v>327.396927</v>
+        <v>518.497894</v>
       </c>
       <c r="I30" t="n">
-        <v>308</v>
+        <v>664</v>
       </c>
       <c r="J30" t="n">
-        <v>0.353802</v>
+        <v>0.313744</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Phenothiazine3</t>
+          <t>Phenothiazine1</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-5.34</v>
+        <v>-4.935</v>
       </c>
       <c r="C31" t="n">
-        <v>-3.153</v>
+        <v>-3.333</v>
       </c>
       <c r="D31" t="n">
-        <v>9.789300000000001</v>
+        <v>9.0352</v>
       </c>
       <c r="E31" t="n">
-        <v>-953.539237</v>
+        <v>-1351.57215</v>
       </c>
       <c r="F31" t="n">
         <v>-0.765</v>
       </c>
       <c r="G31" t="n">
-        <v>310.115745</v>
+        <v>330.452395</v>
       </c>
       <c r="H31" t="n">
-        <v>326.248824</v>
+        <v>349.95115</v>
       </c>
       <c r="I31" t="n">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="J31" t="n">
-        <v>0.479784</v>
+        <v>0.288586</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Phenothiazine4</t>
+          <t>Phenothiazine2</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-4.991</v>
+        <v>-4.818</v>
       </c>
       <c r="C32" t="n">
-        <v>-3.206</v>
+        <v>-2.806</v>
       </c>
       <c r="D32" t="n">
-        <v>9.4053</v>
+        <v>7.2013</v>
       </c>
       <c r="E32" t="n">
-        <v>-1032.044192</v>
+        <v>-1259.394134</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.759</v>
+        <v>-0.631</v>
       </c>
       <c r="G32" t="n">
-        <v>333.827291</v>
+        <v>311.25871</v>
       </c>
       <c r="H32" t="n">
-        <v>358.719796</v>
+        <v>327.396927</v>
       </c>
       <c r="I32" t="n">
-        <v>524</v>
+        <v>308</v>
       </c>
       <c r="J32" t="n">
-        <v>0.534846</v>
+        <v>0.353802</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Quercitin</t>
+          <t>Phenothiazine3</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-5.323</v>
+        <v>-5.34</v>
       </c>
       <c r="C33" t="n">
-        <v>-2.754</v>
+        <v>-3.153</v>
       </c>
       <c r="D33" t="n">
-        <v>6.6676</v>
+        <v>9.789300000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>-1638.590312</v>
+        <v>-953.539237</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.058</v>
+        <v>-0.765</v>
       </c>
       <c r="G33" t="n">
-        <v>381.893317</v>
+        <v>310.115745</v>
       </c>
       <c r="H33" t="n">
-        <v>426.986904</v>
+        <v>326.248824</v>
       </c>
       <c r="I33" t="n">
-        <v>419</v>
+        <v>332</v>
       </c>
       <c r="J33" t="n">
-        <v>0.193758</v>
+        <v>0.479784</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Rutin</t>
+          <t>Phenothiazine4</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-5.159</v>
+        <v>-4.991</v>
       </c>
       <c r="C34" t="n">
-        <v>-2.833</v>
+        <v>-3.206</v>
       </c>
       <c r="D34" t="n">
-        <v>6.3594</v>
+        <v>9.4053</v>
       </c>
       <c r="E34" t="n">
-        <v>-2710.037461</v>
+        <v>-1032.044192</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.971</v>
+        <v>-0.759</v>
       </c>
       <c r="G34" t="n">
-        <v>631.881213</v>
+        <v>333.827291</v>
       </c>
       <c r="H34" t="n">
-        <v>731.916619</v>
+        <v>358.719796</v>
       </c>
       <c r="I34" t="n">
-        <v>466</v>
+        <v>524</v>
       </c>
       <c r="J34" t="n">
-        <v>0.255696</v>
+        <v>0.534846</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>Quercitin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.418</v>
+        <v>-5.323</v>
       </c>
       <c r="C35" t="n">
-        <v>-3.71</v>
+        <v>-2.754</v>
       </c>
       <c r="D35" t="n">
-        <v>14.832</v>
+        <v>6.6676</v>
       </c>
       <c r="E35" t="n">
-        <v>-1464.797419</v>
+        <v>-1638.590312</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.012</v>
+        <v>-1.058</v>
       </c>
       <c r="G35" t="n">
-        <v>373.33181</v>
+        <v>381.893317</v>
       </c>
       <c r="H35" t="n">
-        <v>386.599372</v>
+        <v>426.986904</v>
       </c>
       <c r="I35" t="n">
-        <v>523</v>
+        <v>419</v>
       </c>
       <c r="J35" t="n">
-        <v>0.952597</v>
+        <v>0.193758</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>Rutin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-5.396</v>
+        <v>-5.159</v>
       </c>
       <c r="C36" t="n">
-        <v>-3.71</v>
+        <v>-2.833</v>
       </c>
       <c r="D36" t="n">
-        <v>15.8432</v>
+        <v>6.3594</v>
       </c>
       <c r="E36" t="n">
-        <v>-1618.511711</v>
+        <v>-2710.037461</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.097</v>
+        <v>-1.971</v>
       </c>
       <c r="G36" t="n">
-        <v>417.523898</v>
+        <v>631.881213</v>
       </c>
       <c r="H36" t="n">
-        <v>431.785193</v>
+        <v>731.916619</v>
       </c>
       <c r="I36" t="n">
-        <v>540</v>
+        <v>466</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7944870000000001</v>
+        <v>0.255696</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-5.448</v>
+        <v>-5.418</v>
       </c>
       <c r="C37" t="n">
-        <v>-3.863</v>
+        <v>-3.71</v>
       </c>
       <c r="D37" t="n">
-        <v>13.091</v>
+        <v>14.832</v>
       </c>
       <c r="E37" t="n">
-        <v>-1633.444146</v>
+        <v>-1464.797419</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.952</v>
+        <v>-1.012</v>
       </c>
       <c r="G37" t="n">
-        <v>393.928755</v>
+        <v>373.33181</v>
       </c>
       <c r="H37" t="n">
-        <v>413.254515</v>
+        <v>386.599372</v>
       </c>
       <c r="I37" t="n">
-        <v>560</v>
+        <v>523</v>
       </c>
       <c r="J37" t="n">
-        <v>1.005572</v>
+        <v>0.952597</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-5.396</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-3.71</v>
+      </c>
+      <c r="D38" t="n">
+        <v>15.8432</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-1618.511711</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-1.097</v>
+      </c>
+      <c r="G38" t="n">
+        <v>417.523898</v>
+      </c>
+      <c r="H38" t="n">
+        <v>431.785193</v>
+      </c>
+      <c r="I38" t="n">
+        <v>540</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.7944870000000001</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-5.448</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-3.863</v>
+      </c>
+      <c r="D39" t="n">
+        <v>13.091</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-1633.444146</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.952</v>
+      </c>
+      <c r="G39" t="n">
+        <v>393.928755</v>
+      </c>
+      <c r="H39" t="n">
+        <v>413.254515</v>
+      </c>
+      <c r="I39" t="n">
+        <v>560</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.005572</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>T4</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B40" t="n">
         <v>-5.429</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C40" t="n">
         <v>-3.866</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D40" t="n">
         <v>13.7502</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E40" t="n">
         <v>-1787.160542</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F40" t="n">
         <v>-1.021</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G40" t="n">
         <v>441.173419</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H40" t="n">
         <v>457.649836</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I40" t="n">
         <v>583</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J40" t="n">
         <v>0.7942709999999999</v>
       </c>
     </row>

--- a/dyes_DFT_PBE_eth_dataset.xlsx
+++ b/dyes_DFT_PBE_eth_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1428,374 +1428,408 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MS-M</t>
+          <t>MS-F</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-4.847</v>
+        <v>-4.86</v>
       </c>
       <c r="C30" t="n">
-        <v>-3.416</v>
+        <v>-3.442</v>
       </c>
       <c r="D30" t="n">
-        <v>13.6713</v>
+        <v>13.288</v>
       </c>
       <c r="E30" t="n">
-        <v>-1891.093586</v>
+        <v>-2665.761431</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.948</v>
+        <v>-1.129</v>
       </c>
       <c r="G30" t="n">
-        <v>461.204862</v>
+        <v>727.90863</v>
       </c>
       <c r="H30" t="n">
-        <v>518.497894</v>
+        <v>831.593118</v>
       </c>
       <c r="I30" t="n">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="J30" t="n">
-        <v>0.313744</v>
+        <v>0.321307</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Phenothiazine1</t>
+          <t>MS-M</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-4.935</v>
+        <v>-4.847</v>
       </c>
       <c r="C31" t="n">
-        <v>-3.333</v>
+        <v>-3.416</v>
       </c>
       <c r="D31" t="n">
-        <v>9.0352</v>
+        <v>13.6713</v>
       </c>
       <c r="E31" t="n">
-        <v>-1351.57215</v>
+        <v>-1891.093586</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.765</v>
+        <v>-0.948</v>
       </c>
       <c r="G31" t="n">
-        <v>330.452395</v>
+        <v>461.204862</v>
       </c>
       <c r="H31" t="n">
-        <v>349.95115</v>
+        <v>518.497894</v>
       </c>
       <c r="I31" t="n">
-        <v>343</v>
+        <v>664</v>
       </c>
       <c r="J31" t="n">
-        <v>0.288586</v>
+        <v>0.313744</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Phenothiazine2</t>
+          <t>Phenothiazine1</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-4.818</v>
+        <v>-4.935</v>
       </c>
       <c r="C32" t="n">
-        <v>-2.806</v>
+        <v>-3.333</v>
       </c>
       <c r="D32" t="n">
-        <v>7.2013</v>
+        <v>9.0352</v>
       </c>
       <c r="E32" t="n">
-        <v>-1259.394134</v>
+        <v>-1351.57215</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.631</v>
+        <v>-0.765</v>
       </c>
       <c r="G32" t="n">
-        <v>311.25871</v>
+        <v>330.452395</v>
       </c>
       <c r="H32" t="n">
-        <v>327.396927</v>
+        <v>349.95115</v>
       </c>
       <c r="I32" t="n">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="J32" t="n">
-        <v>0.353802</v>
+        <v>0.288586</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Phenothiazine3</t>
+          <t>Phenothiazine2</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-5.34</v>
+        <v>-4.818</v>
       </c>
       <c r="C33" t="n">
-        <v>-3.153</v>
+        <v>-2.806</v>
       </c>
       <c r="D33" t="n">
-        <v>9.789300000000001</v>
+        <v>7.2013</v>
       </c>
       <c r="E33" t="n">
-        <v>-953.539237</v>
+        <v>-1259.394134</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.765</v>
+        <v>-0.631</v>
       </c>
       <c r="G33" t="n">
-        <v>310.115745</v>
+        <v>311.25871</v>
       </c>
       <c r="H33" t="n">
-        <v>326.248824</v>
+        <v>327.396927</v>
       </c>
       <c r="I33" t="n">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="J33" t="n">
-        <v>0.479784</v>
+        <v>0.353802</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Phenothiazine4</t>
+          <t>Phenothiazine3</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-4.991</v>
+        <v>-5.34</v>
       </c>
       <c r="C34" t="n">
-        <v>-3.206</v>
+        <v>-3.153</v>
       </c>
       <c r="D34" t="n">
-        <v>9.4053</v>
+        <v>9.789300000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>-1032.044192</v>
+        <v>-953.539237</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.759</v>
+        <v>-0.765</v>
       </c>
       <c r="G34" t="n">
-        <v>333.827291</v>
+        <v>310.115745</v>
       </c>
       <c r="H34" t="n">
-        <v>358.719796</v>
+        <v>326.248824</v>
       </c>
       <c r="I34" t="n">
-        <v>524</v>
+        <v>332</v>
       </c>
       <c r="J34" t="n">
-        <v>0.534846</v>
+        <v>0.479784</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Quercitin</t>
+          <t>Phenothiazine4</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.323</v>
+        <v>-4.991</v>
       </c>
       <c r="C35" t="n">
-        <v>-2.754</v>
+        <v>-3.206</v>
       </c>
       <c r="D35" t="n">
-        <v>6.6676</v>
+        <v>9.4053</v>
       </c>
       <c r="E35" t="n">
-        <v>-1638.590312</v>
+        <v>-1032.044192</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.058</v>
+        <v>-0.759</v>
       </c>
       <c r="G35" t="n">
-        <v>381.893317</v>
+        <v>333.827291</v>
       </c>
       <c r="H35" t="n">
-        <v>426.986904</v>
+        <v>358.719796</v>
       </c>
       <c r="I35" t="n">
-        <v>419</v>
+        <v>524</v>
       </c>
       <c r="J35" t="n">
-        <v>0.193758</v>
+        <v>0.534846</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Rutin</t>
+          <t>Quercitin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-5.159</v>
+        <v>-5.323</v>
       </c>
       <c r="C36" t="n">
-        <v>-2.833</v>
+        <v>-2.754</v>
       </c>
       <c r="D36" t="n">
-        <v>6.3594</v>
+        <v>6.6676</v>
       </c>
       <c r="E36" t="n">
-        <v>-2710.037461</v>
+        <v>-1638.590312</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.971</v>
+        <v>-1.058</v>
       </c>
       <c r="G36" t="n">
-        <v>631.881213</v>
+        <v>381.893317</v>
       </c>
       <c r="H36" t="n">
-        <v>731.916619</v>
+        <v>426.986904</v>
       </c>
       <c r="I36" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="J36" t="n">
-        <v>0.255696</v>
+        <v>0.193758</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>Rutin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-5.418</v>
+        <v>-5.159</v>
       </c>
       <c r="C37" t="n">
-        <v>-3.71</v>
+        <v>-2.833</v>
       </c>
       <c r="D37" t="n">
-        <v>14.832</v>
+        <v>6.3594</v>
       </c>
       <c r="E37" t="n">
-        <v>-1464.797419</v>
+        <v>-2710.037461</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.012</v>
+        <v>-1.971</v>
       </c>
       <c r="G37" t="n">
-        <v>373.33181</v>
+        <v>631.881213</v>
       </c>
       <c r="H37" t="n">
-        <v>386.599372</v>
+        <v>731.916619</v>
       </c>
       <c r="I37" t="n">
-        <v>523</v>
+        <v>466</v>
       </c>
       <c r="J37" t="n">
-        <v>0.952597</v>
+        <v>0.255696</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-5.396</v>
+        <v>-5.418</v>
       </c>
       <c r="C38" t="n">
         <v>-3.71</v>
       </c>
       <c r="D38" t="n">
-        <v>15.8432</v>
+        <v>14.832</v>
       </c>
       <c r="E38" t="n">
-        <v>-1618.511711</v>
+        <v>-1464.797419</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.097</v>
+        <v>-1.012</v>
       </c>
       <c r="G38" t="n">
-        <v>417.523898</v>
+        <v>373.33181</v>
       </c>
       <c r="H38" t="n">
-        <v>431.785193</v>
+        <v>386.599372</v>
       </c>
       <c r="I38" t="n">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="J38" t="n">
-        <v>0.7944870000000001</v>
+        <v>0.952597</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-5.448</v>
+        <v>-5.396</v>
       </c>
       <c r="C39" t="n">
-        <v>-3.863</v>
+        <v>-3.71</v>
       </c>
       <c r="D39" t="n">
-        <v>13.091</v>
+        <v>15.8432</v>
       </c>
       <c r="E39" t="n">
-        <v>-1633.444146</v>
+        <v>-1618.511711</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.952</v>
+        <v>-1.097</v>
       </c>
       <c r="G39" t="n">
-        <v>393.928755</v>
+        <v>417.523898</v>
       </c>
       <c r="H39" t="n">
-        <v>413.254515</v>
+        <v>431.785193</v>
       </c>
       <c r="I39" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="J39" t="n">
-        <v>1.005572</v>
+        <v>0.7944870000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-5.448</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-3.863</v>
+      </c>
+      <c r="D40" t="n">
+        <v>13.091</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-1633.444146</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.952</v>
+      </c>
+      <c r="G40" t="n">
+        <v>393.928755</v>
+      </c>
+      <c r="H40" t="n">
+        <v>413.254515</v>
+      </c>
+      <c r="I40" t="n">
+        <v>560</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.005572</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>T4</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B41" t="n">
         <v>-5.429</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C41" t="n">
         <v>-3.866</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D41" t="n">
         <v>13.7502</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E41" t="n">
         <v>-1787.160542</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F41" t="n">
         <v>-1.021</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G41" t="n">
         <v>441.173419</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H41" t="n">
         <v>457.649836</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I41" t="n">
         <v>583</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J41" t="n">
         <v>0.7942709999999999</v>
       </c>
     </row>

--- a/dyes_DFT_PBE_eth_dataset.xlsx
+++ b/dyes_DFT_PBE_eth_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,32 +456,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Total_Energy_Hartree</t>
+          <t>Max_Absorption_nm</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Solvation_Energy_eV</t>
+          <t>Max_f_osc</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Surface_Area_A2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Molecular_Volume_A3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Max_Absorption_nm</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Max_f_osc</t>
+          <t>Max_Excitation_eV</t>
         </is>
       </c>
     </row>
@@ -501,22 +486,13 @@
         <v>27.1424</v>
       </c>
       <c r="E2" t="n">
-        <v>-2857.552262</v>
+        <v>583</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.232</v>
+        <v>1.010128</v>
       </c>
       <c r="G2" t="n">
-        <v>598.8412039999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>651.33504</v>
-      </c>
-      <c r="I2" t="n">
-        <v>583</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.010128</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="3">
@@ -535,22 +511,13 @@
         <v>20.2171</v>
       </c>
       <c r="E3" t="n">
-        <v>-2677.852681</v>
+        <v>558</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.105</v>
+        <v>1.084045</v>
       </c>
       <c r="G3" t="n">
-        <v>763.2236789999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>840.423948</v>
-      </c>
-      <c r="I3" t="n">
-        <v>558</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.084045</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="4">
@@ -569,22 +536,13 @@
         <v>18.4425</v>
       </c>
       <c r="E4" t="n">
-        <v>-2523.17176</v>
+        <v>510</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.031</v>
+        <v>0.547976</v>
       </c>
       <c r="G4" t="n">
-        <v>697.440336</v>
-      </c>
-      <c r="H4" t="n">
-        <v>770.669635</v>
-      </c>
-      <c r="I4" t="n">
-        <v>510</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.547976</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="5">
@@ -603,22 +561,13 @@
         <v>27.223</v>
       </c>
       <c r="E5" t="n">
-        <v>-2857.553234</v>
+        <v>592</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.203</v>
+        <v>0.9993840000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>596.582989</v>
-      </c>
-      <c r="H5" t="n">
-        <v>652.896473</v>
-      </c>
-      <c r="I5" t="n">
-        <v>592</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.9993840000000001</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +586,13 @@
         <v>14.9789</v>
       </c>
       <c r="E6" t="n">
-        <v>-3498.950342</v>
+        <v>528</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.944</v>
+        <v>0.889745</v>
       </c>
       <c r="G6" t="n">
-        <v>582.016851</v>
-      </c>
-      <c r="H6" t="n">
-        <v>641.354295</v>
-      </c>
-      <c r="I6" t="n">
-        <v>528</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.889745</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="7">
@@ -671,22 +611,13 @@
         <v>16.8789</v>
       </c>
       <c r="E7" t="n">
-        <v>-1985.333899</v>
+        <v>530</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.026</v>
+        <v>0.7176399999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>544.1936920000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>582.522059</v>
-      </c>
-      <c r="I7" t="n">
-        <v>530</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.7176399999999999</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="8">
@@ -705,22 +636,13 @@
         <v>26.3601</v>
       </c>
       <c r="E8" t="n">
-        <v>-2216.160004</v>
+        <v>561</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.214</v>
+        <v>1.05693</v>
       </c>
       <c r="G8" t="n">
-        <v>608.199673</v>
-      </c>
-      <c r="H8" t="n">
-        <v>664.73637</v>
-      </c>
-      <c r="I8" t="n">
-        <v>561</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.05693</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +661,13 @@
         <v>23.7772</v>
       </c>
       <c r="E9" t="n">
-        <v>-2767.699232</v>
+        <v>637</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.31</v>
+        <v>0.705128</v>
       </c>
       <c r="G9" t="n">
-        <v>678.557941</v>
-      </c>
-      <c r="H9" t="n">
-        <v>748.458472</v>
-      </c>
-      <c r="I9" t="n">
-        <v>637</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.705128</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="10">
@@ -773,22 +686,13 @@
         <v>21.2796</v>
       </c>
       <c r="E10" t="n">
-        <v>-3319.255172</v>
+        <v>682</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.171</v>
+        <v>1.470767</v>
       </c>
       <c r="G10" t="n">
-        <v>747.679262</v>
-      </c>
-      <c r="H10" t="n">
-        <v>828.789887</v>
-      </c>
-      <c r="I10" t="n">
-        <v>682</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.470767</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="11">
@@ -807,22 +711,13 @@
         <v>12.6487</v>
       </c>
       <c r="E11" t="n">
-        <v>-976.941902</v>
+        <v>395</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.883</v>
+        <v>0.660223</v>
       </c>
       <c r="G11" t="n">
-        <v>316.688346</v>
-      </c>
-      <c r="H11" t="n">
-        <v>337.226059</v>
-      </c>
-      <c r="I11" t="n">
-        <v>395</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.660223</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="12">
@@ -840,20 +735,9 @@
       <c r="D12" t="n">
         <v>98.8438</v>
       </c>
-      <c r="E12" t="n">
-        <v>-1302.137905</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-2.963</v>
-      </c>
-      <c r="G12" t="n">
-        <v>405.449327</v>
-      </c>
-      <c r="H12" t="n">
-        <v>445.844837</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -870,20 +754,9 @@
       <c r="D13" t="n">
         <v>98.87090000000001</v>
       </c>
-      <c r="E13" t="n">
-        <v>-1490.594493</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-3.135</v>
-      </c>
-      <c r="G13" t="n">
-        <v>434.990964</v>
-      </c>
-      <c r="H13" t="n">
-        <v>484.48366</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -901,22 +774,13 @@
         <v>19.4563</v>
       </c>
       <c r="E14" t="n">
-        <v>-1185.751624</v>
+        <v>398</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.305</v>
+        <v>0.417237</v>
       </c>
       <c r="G14" t="n">
-        <v>379.435251</v>
-      </c>
-      <c r="H14" t="n">
-        <v>406.117241</v>
-      </c>
-      <c r="I14" t="n">
-        <v>398</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.417237</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="15">
@@ -934,20 +798,9 @@
       <c r="D15" t="n">
         <v>4.6029</v>
       </c>
-      <c r="E15" t="n">
-        <v>-2016.20086</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-2.47</v>
-      </c>
-      <c r="G15" t="n">
-        <v>484.780784</v>
-      </c>
-      <c r="H15" t="n">
-        <v>533.433162</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -965,22 +818,13 @@
         <v>6.5592</v>
       </c>
       <c r="E16" t="n">
-        <v>-1393.134805</v>
+        <v>408</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.184</v>
+        <v>0.17197</v>
       </c>
       <c r="G16" t="n">
-        <v>387.3409</v>
-      </c>
-      <c r="H16" t="n">
-        <v>412.951353</v>
-      </c>
-      <c r="I16" t="n">
-        <v>408</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.17197</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="17">
@@ -999,22 +843,13 @@
         <v>6.8226</v>
       </c>
       <c r="E17" t="n">
-        <v>-1278.684862</v>
+        <v>409</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.054</v>
+        <v>0.234811</v>
       </c>
       <c r="G17" t="n">
-        <v>354.439145</v>
-      </c>
-      <c r="H17" t="n">
-        <v>380.068067</v>
-      </c>
-      <c r="I17" t="n">
-        <v>409</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.234811</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="18">
@@ -1033,22 +868,13 @@
         <v>3.3748</v>
       </c>
       <c r="E18" t="n">
-        <v>-1444.874262</v>
+        <v>359</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.061</v>
+        <v>0.109098</v>
       </c>
       <c r="G18" t="n">
-        <v>346.581779</v>
-      </c>
-      <c r="H18" t="n">
-        <v>402.922143</v>
-      </c>
-      <c r="I18" t="n">
-        <v>359</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.109098</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="19">
@@ -1067,22 +893,13 @@
         <v>5.8789</v>
       </c>
       <c r="E19" t="n">
-        <v>-3704.69389</v>
+        <v>474</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6850000000000001</v>
+        <v>0.499187</v>
       </c>
       <c r="G19" t="n">
-        <v>389.939641</v>
-      </c>
-      <c r="H19" t="n">
-        <v>426.054576</v>
-      </c>
-      <c r="I19" t="n">
-        <v>474</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.499187</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="20">
@@ -1101,22 +918,13 @@
         <v>7.7768</v>
       </c>
       <c r="E20" t="n">
-        <v>-3796.874182</v>
+        <v>519</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.8159999999999999</v>
+        <v>0.533851</v>
       </c>
       <c r="G20" t="n">
-        <v>412.305213</v>
-      </c>
-      <c r="H20" t="n">
-        <v>452.543801</v>
-      </c>
-      <c r="I20" t="n">
-        <v>519</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.533851</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="21">
@@ -1135,22 +943,13 @@
         <v>15.9162</v>
       </c>
       <c r="E21" t="n">
-        <v>-1792.373694</v>
+        <v>499</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.279</v>
+        <v>0.49904</v>
       </c>
       <c r="G21" t="n">
-        <v>550.9036610000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>608.061144</v>
-      </c>
-      <c r="I21" t="n">
-        <v>499</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.49904</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="22">
@@ -1169,22 +968,13 @@
         <v>14.9396</v>
       </c>
       <c r="E22" t="n">
-        <v>-2022.424503</v>
+        <v>530</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.356</v>
+        <v>0.47172</v>
       </c>
       <c r="G22" t="n">
-        <v>627.077769</v>
-      </c>
-      <c r="H22" t="n">
-        <v>682.392874</v>
-      </c>
-      <c r="I22" t="n">
-        <v>530</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.47172</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="23">
@@ -1203,22 +993,13 @@
         <v>16.2844</v>
       </c>
       <c r="E23" t="n">
-        <v>-2535.560415</v>
+        <v>477</v>
       </c>
       <c r="F23" t="n">
-        <v>-1</v>
+        <v>0.808441</v>
       </c>
       <c r="G23" t="n">
-        <v>591.298232</v>
-      </c>
-      <c r="H23" t="n">
-        <v>658.422544</v>
-      </c>
-      <c r="I23" t="n">
-        <v>477</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.808441</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="24">
@@ -1237,22 +1018,13 @@
         <v>17.3138</v>
       </c>
       <c r="E24" t="n">
-        <v>-1967.136305</v>
+        <v>386</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.353</v>
+        <v>0.577334</v>
       </c>
       <c r="G24" t="n">
-        <v>617.099793</v>
-      </c>
-      <c r="H24" t="n">
-        <v>671.250232</v>
-      </c>
-      <c r="I24" t="n">
-        <v>386</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.577334</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="25">
@@ -1271,22 +1043,13 @@
         <v>16.471</v>
       </c>
       <c r="E25" t="n">
-        <v>-2312.401476</v>
+        <v>528</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.336</v>
+        <v>0.423081</v>
       </c>
       <c r="G25" t="n">
-        <v>704.952075</v>
-      </c>
-      <c r="H25" t="n">
-        <v>785.040585</v>
-      </c>
-      <c r="I25" t="n">
-        <v>528</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.423081</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="26">
@@ -1305,22 +1068,13 @@
         <v>15.3525</v>
       </c>
       <c r="E26" t="n">
-        <v>-1965.967739</v>
+        <v>381</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.36</v>
+        <v>0.6651629999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>602.737814</v>
-      </c>
-      <c r="H26" t="n">
-        <v>657.103752</v>
-      </c>
-      <c r="I26" t="n">
-        <v>381</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6651629999999999</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="27">
@@ -1339,22 +1093,13 @@
         <v>12.863</v>
       </c>
       <c r="E27" t="n">
-        <v>-2311.233739</v>
+        <v>799</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.319</v>
+        <v>0.349878</v>
       </c>
       <c r="G27" t="n">
-        <v>690.739525</v>
-      </c>
-      <c r="H27" t="n">
-        <v>770.634095</v>
-      </c>
-      <c r="I27" t="n">
-        <v>799</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.349878</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="28">
@@ -1373,22 +1118,13 @@
         <v>16.1448</v>
       </c>
       <c r="E28" t="n">
-        <v>-893.434984</v>
+        <v>505</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.046</v>
+        <v>0.715402</v>
       </c>
       <c r="G28" t="n">
-        <v>300.657905</v>
-      </c>
-      <c r="H28" t="n">
-        <v>301.828548</v>
-      </c>
-      <c r="I28" t="n">
-        <v>505</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.715402</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="29">
@@ -1407,22 +1143,13 @@
         <v>12.4976</v>
       </c>
       <c r="E29" t="n">
-        <v>-2524.737106</v>
+        <v>524</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.229</v>
+        <v>0.540054</v>
       </c>
       <c r="G29" t="n">
-        <v>664.014608</v>
-      </c>
-      <c r="H29" t="n">
-        <v>750.022794</v>
-      </c>
-      <c r="I29" t="n">
-        <v>524</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.540054</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="30">
@@ -1441,22 +1168,13 @@
         <v>13.288</v>
       </c>
       <c r="E30" t="n">
-        <v>-2665.761431</v>
+        <v>671</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.129</v>
+        <v>0.321307</v>
       </c>
       <c r="G30" t="n">
-        <v>727.90863</v>
-      </c>
-      <c r="H30" t="n">
-        <v>831.593118</v>
-      </c>
-      <c r="I30" t="n">
-        <v>671</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.321307</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="31">
@@ -1475,22 +1193,13 @@
         <v>13.6713</v>
       </c>
       <c r="E31" t="n">
-        <v>-1891.093586</v>
+        <v>664</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.948</v>
+        <v>0.313744</v>
       </c>
       <c r="G31" t="n">
-        <v>461.204862</v>
-      </c>
-      <c r="H31" t="n">
-        <v>518.497894</v>
-      </c>
-      <c r="I31" t="n">
-        <v>664</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.313744</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="32">
@@ -1509,22 +1218,13 @@
         <v>9.0352</v>
       </c>
       <c r="E32" t="n">
-        <v>-1351.57215</v>
+        <v>343</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.765</v>
+        <v>0.288586</v>
       </c>
       <c r="G32" t="n">
-        <v>330.452395</v>
-      </c>
-      <c r="H32" t="n">
-        <v>349.95115</v>
-      </c>
-      <c r="I32" t="n">
-        <v>343</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.288586</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="33">
@@ -1543,22 +1243,13 @@
         <v>7.2013</v>
       </c>
       <c r="E33" t="n">
-        <v>-1259.394134</v>
+        <v>308</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.631</v>
+        <v>0.353802</v>
       </c>
       <c r="G33" t="n">
-        <v>311.25871</v>
-      </c>
-      <c r="H33" t="n">
-        <v>327.396927</v>
-      </c>
-      <c r="I33" t="n">
-        <v>308</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.353802</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="34">
@@ -1577,22 +1268,13 @@
         <v>9.789300000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>-953.539237</v>
+        <v>332</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.765</v>
+        <v>0.479784</v>
       </c>
       <c r="G34" t="n">
-        <v>310.115745</v>
-      </c>
-      <c r="H34" t="n">
-        <v>326.248824</v>
-      </c>
-      <c r="I34" t="n">
-        <v>332</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.479784</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="35">
@@ -1611,22 +1293,13 @@
         <v>9.4053</v>
       </c>
       <c r="E35" t="n">
-        <v>-1032.044192</v>
+        <v>524</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.759</v>
+        <v>0.534846</v>
       </c>
       <c r="G35" t="n">
-        <v>333.827291</v>
-      </c>
-      <c r="H35" t="n">
-        <v>358.719796</v>
-      </c>
-      <c r="I35" t="n">
-        <v>524</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.534846</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="36">
@@ -1645,22 +1318,13 @@
         <v>6.6676</v>
       </c>
       <c r="E36" t="n">
-        <v>-1638.590312</v>
+        <v>419</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.058</v>
+        <v>0.193758</v>
       </c>
       <c r="G36" t="n">
-        <v>381.893317</v>
-      </c>
-      <c r="H36" t="n">
-        <v>426.986904</v>
-      </c>
-      <c r="I36" t="n">
-        <v>419</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.193758</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="37">
@@ -1679,22 +1343,13 @@
         <v>6.3594</v>
       </c>
       <c r="E37" t="n">
-        <v>-2710.037461</v>
+        <v>466</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.971</v>
+        <v>0.255696</v>
       </c>
       <c r="G37" t="n">
-        <v>631.881213</v>
-      </c>
-      <c r="H37" t="n">
-        <v>731.916619</v>
-      </c>
-      <c r="I37" t="n">
-        <v>466</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.255696</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="38">
@@ -1713,22 +1368,13 @@
         <v>14.832</v>
       </c>
       <c r="E38" t="n">
-        <v>-1464.797419</v>
+        <v>523</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.012</v>
+        <v>0.952597</v>
       </c>
       <c r="G38" t="n">
-        <v>373.33181</v>
-      </c>
-      <c r="H38" t="n">
-        <v>386.599372</v>
-      </c>
-      <c r="I38" t="n">
-        <v>523</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.952597</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="39">
@@ -1747,22 +1393,13 @@
         <v>15.8432</v>
       </c>
       <c r="E39" t="n">
-        <v>-1618.511711</v>
+        <v>540</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.097</v>
+        <v>0.7944870000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>417.523898</v>
-      </c>
-      <c r="H39" t="n">
-        <v>431.785193</v>
-      </c>
-      <c r="I39" t="n">
-        <v>540</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.7944870000000001</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="40">
@@ -1781,22 +1418,13 @@
         <v>13.091</v>
       </c>
       <c r="E40" t="n">
-        <v>-1633.444146</v>
+        <v>560</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.952</v>
+        <v>1.005572</v>
       </c>
       <c r="G40" t="n">
-        <v>393.928755</v>
-      </c>
-      <c r="H40" t="n">
-        <v>413.254515</v>
-      </c>
-      <c r="I40" t="n">
-        <v>560</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1.005572</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="41">
@@ -1815,22 +1443,13 @@
         <v>13.7502</v>
       </c>
       <c r="E41" t="n">
-        <v>-1787.160542</v>
+        <v>583</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.021</v>
+        <v>0.7942709999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>441.173419</v>
-      </c>
-      <c r="H41" t="n">
-        <v>457.649836</v>
-      </c>
-      <c r="I41" t="n">
-        <v>583</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.7942709999999999</v>
+        <v>2.13</v>
       </c>
     </row>
   </sheetData>
